--- a/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
@@ -41,8 +41,16 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -77,16 +85,23 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -394,24 +409,34 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.910625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.800625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="19.630625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.970625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.640625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.390625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
-      <x:c r="B1" s="0" t="s">
+    <x:row r="1" spans="1:7" ht="19.022622" customHeight="1">
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="C1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -425,10 +450,10 @@
       <x:c r="E2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F2" s="1">
+      <x:c r="F2" s="2">
         <x:v>44861.6083449074</x:v>
       </x:c>
-      <x:c r="G2" s="1">
+      <x:c r="G2" s="2">
         <x:v>44861.8861111111</x:v>
       </x:c>
     </x:row>
@@ -442,7 +467,7 @@
       <x:c r="D3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F3" s="1">
+      <x:c r="F3" s="2">
         <x:v>44861.6911226852</x:v>
       </x:c>
     </x:row>
@@ -459,11 +484,143 @@
       <x:c r="E4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="1">
+      <x:c r="F4" s="2">
         <x:v>44867.7147222222</x:v>
       </x:c>
-      <x:c r="G4" s="1">
+      <x:c r="G4" s="2">
         <x:v>44867.8333333333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="B5" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F5" s="2">
+        <x:v>44868.7409722222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="B6" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F6" s="2">
+        <x:v>44868.8104513889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="B7" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F7" s="2">
+        <x:v>44869.0206944444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="B8" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F8" s="2">
+        <x:v>44869.0209259259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="B9" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F9" s="2">
+        <x:v>44869.0219328704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="B10" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F10" s="2">
+        <x:v>44869.023275463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="B11" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F11" s="2">
+        <x:v>44869.0237268519</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="B12" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="F12" s="2">
+        <x:v>44869.0243518519</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="B13" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="F13" s="2">
+        <x:v>44869.0244791667</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
@@ -622,6 +622,105 @@
       <x:c r="F13" s="2">
         <x:v>44869.0244791667</x:v>
       </x:c>
+      <x:c r="G13" s="2">
+        <x:v>44870.8333333333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="B14" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="F14" s="2">
+        <x:v>44869.4465856481</x:v>
+      </x:c>
+      <x:c r="G14" s="2">
+        <x:v>44869.4706481481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="B15" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="F15" s="2">
+        <x:v>44869.4710763889</x:v>
+      </x:c>
+      <x:c r="G15" s="2">
+        <x:v>44869.4715625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="B16" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="F16" s="2">
+        <x:v>44869.475625</x:v>
+      </x:c>
+      <x:c r="G16" s="2">
+        <x:v>44869.4757175926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="B17" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F17" s="2">
+        <x:v>44869.2712152778</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="B18" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F18" s="2">
+        <x:v>44869.5032175926</x:v>
+      </x:c>
+      <x:c r="G18" s="2">
+        <x:v>44869.5034259259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="B19" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F19" s="2">
+        <x:v>44869.505787037</x:v>
+      </x:c>
+      <x:c r="G19" s="2">
+        <x:v>44869.5059143519</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
@@ -22,10 +22,10 @@
     <x:t>Номер посетителя</x:t>
   </x:si>
   <x:si>
-    <x:t>Номер события</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Номер резидента</x:t>
+    <x:t>Событие</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Резидент</x:t>
   </x:si>
   <x:si>
     <x:t>Дата захода</x:t>
@@ -413,8 +413,8 @@
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="22.800625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="19.630625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.970625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.690625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.420625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="15.640625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="16.390625" style="0" customWidth="1"/>
   </x:cols>
@@ -447,19 +447,22 @@
       <x:c r="C2" s="0" t="n">
         <x:v>1143</x:v>
       </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="2">
-        <x:v>44861.6083449074</x:v>
+        <x:v>44853.6660300926</x:v>
       </x:c>
       <x:c r="G2" s="2">
-        <x:v>44861.8861111111</x:v>
+        <x:v>44853.8326967593</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="B3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1143</x:v>
@@ -468,258 +471,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F3" s="2">
-        <x:v>44861.6911226852</x:v>
+        <x:v>44862.3020023148</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="B4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>1143</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="F4" s="2">
-        <x:v>44867.7147222222</x:v>
-      </x:c>
-      <x:c r="G4" s="2">
-        <x:v>44867.8333333333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="B5" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F5" s="2">
-        <x:v>44868.7409722222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="B6" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F6" s="2">
-        <x:v>44868.8104513889</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="B7" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F7" s="2">
-        <x:v>44869.0206944444</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="B8" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F8" s="2">
-        <x:v>44869.0209259259</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="B9" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F9" s="2">
-        <x:v>44869.0219328704</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="B10" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F10" s="2">
-        <x:v>44869.023275463</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="B11" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F11" s="2">
-        <x:v>44869.0237268519</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="B12" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="F12" s="2">
-        <x:v>44869.0243518519</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="B13" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="F13" s="2">
-        <x:v>44869.0244791667</x:v>
-      </x:c>
-      <x:c r="G13" s="2">
-        <x:v>44870.8333333333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="B14" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="F14" s="2">
-        <x:v>44869.4465856481</x:v>
-      </x:c>
-      <x:c r="G14" s="2">
-        <x:v>44869.4706481481</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="B15" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="F15" s="2">
-        <x:v>44869.4710763889</x:v>
-      </x:c>
-      <x:c r="G15" s="2">
-        <x:v>44869.4715625</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="B16" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="F16" s="2">
-        <x:v>44869.475625</x:v>
-      </x:c>
-      <x:c r="G16" s="2">
-        <x:v>44869.4757175926</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7">
-      <x:c r="B17" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F17" s="2">
-        <x:v>44869.2712152778</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7">
-      <x:c r="B18" s="0" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F18" s="2">
-        <x:v>44869.5032175926</x:v>
-      </x:c>
-      <x:c r="G18" s="2">
-        <x:v>44869.5034259259</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:7">
-      <x:c r="B19" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F19" s="2">
-        <x:v>44869.505787037</x:v>
-      </x:c>
-      <x:c r="G19" s="2">
-        <x:v>44869.5059143519</x:v>
+        <x:v>44874.8674189815</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
@@ -14,24 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>Номер записи</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Номер посетителя</x:t>
   </x:si>
   <x:si>
-    <x:t>Событие</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Резидент</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата захода</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата выхода</x:t>
+    <x:t>Фамилия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата рождения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Номер телефона</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Место учебы/Работы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Социальная сеть</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Откуда узнали о нас</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата присоединения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Панкратов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Семён</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Николаевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89021773627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>simen204@mail.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ГБПОУ ИО "АПЭТ"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ВК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Группа в ВК</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иващенко</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Марина</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Андреевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89086562220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@mail.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Школа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Группа ВК</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -92,7 +152,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -105,7 +165,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -404,22 +464,27 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G2"/>
+  <x:dimension ref="A1:L2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.910625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.800625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.690625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.420625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.640625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.390625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.490625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="6.720625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.050625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.580625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="21.020625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="7.830625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="26.160625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="20.880625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="24.900625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="25.800625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" ht="19.022622" customHeight="1">
+    <x:row r="1" spans="1:12" ht="19.022622" customHeight="1">
       <x:c r="A1" s="1" t="s"/>
       <x:c r="B1" s="1" t="s">
         <x:v>0</x:v>
@@ -439,50 +504,90 @@
       <x:c r="G1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:12">
       <x:c r="B2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
         <x:v>1143</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>1</x:v>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="2">
-        <x:v>44853.6660300926</x:v>
-      </x:c>
-      <x:c r="G2" s="2">
-        <x:v>44853.8326967593</x:v>
+        <x:v>38182</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L2" s="2">
+        <x:v>44501</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:12">
       <x:c r="B3" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>1144</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="2">
-        <x:v>44862.3020023148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="B4" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="F4" s="2">
-        <x:v>44874.8674189815</x:v>
+        <x:v>39024</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L3" s="2">
+        <x:v>44907</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
@@ -14,84 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <x:si>
-    <x:t>Номер посетителя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Фамилия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Имя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отчество</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата рождения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Номер телефона</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Место учебы/Работы</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Социальная сеть</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Откуда узнали о нас</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Дата присоединения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Панкратов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Семён</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Николаевич</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89021773627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>simen204@mail.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ГБПОУ ИО "АПЭТ"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ВК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Группа в ВК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иващенко</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Марина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Андреевна</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89086562220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@mail.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Школа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Группа ВК</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>Номер резидента</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Название клуба</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Деятельность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Руководитель</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Медиа-центр</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Фотография</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сергей Терпиловский</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТНСТ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>АГГГ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ШШШШШ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ЙЙЙЙ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ЙЙЙ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -145,27 +103,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -464,27 +415,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L2"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="22.800625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.490625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="6.720625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.050625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.580625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="21.020625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="7.830625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="26.160625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="20.880625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="24.900625" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="25.800625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="21.970625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.890625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.480625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.870625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:12" ht="19.022622" customHeight="1">
+    <x:row r="1" spans="1:5" ht="19.022622" customHeight="1">
       <x:c r="A1" s="1" t="s"/>
       <x:c r="B1" s="1" t="s">
         <x:v>0</x:v>
@@ -498,96 +442,47 @@
       <x:c r="E1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="B2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="I1" s="1" t="s">
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="B3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="J1" s="1" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="K1" s="1" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L1" s="1" t="s">
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="B4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:12">
-      <x:c r="B2" s="0" t="n">
-        <x:v>1143</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F2" s="2">
-        <x:v>38182</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L2" s="2">
-        <x:v>44501</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:12">
-      <x:c r="B3" s="0" t="n">
-        <x:v>1144</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F3" s="2">
-        <x:v>39024</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L3" s="2">
-        <x:v>44907</x:v>
+      <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Номер резидента</x:t>
   </x:si>
@@ -28,15 +28,6 @@
     <x:t>Руководитель</x:t>
   </x:si>
   <x:si>
-    <x:t>Медиа-центр</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Фотография</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сергей Терпиловский</x:t>
-  </x:si>
-  <x:si>
     <x:t>ТНСТ</x:t>
   </x:si>
   <x:si>
@@ -44,12 +35,6 @@
   </x:si>
   <x:si>
     <x:t>ШШШШШ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ЙЙЙЙ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ЙЙЙ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -415,7 +400,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:E1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -445,7 +430,7 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="B2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>4</x:v>
@@ -455,34 +440,6 @@
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="B3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
